--- a/Final Test Cases/EasyTestCase.xlsx
+++ b/Final Test Cases/EasyTestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb91a9f572235a6e/Desktop/ML4NLU Documentation/Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3CF9F470-D500-45A5-9BBD-06189A092AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A941352E-3F6D-4B9D-B532-DB8C5CB33141}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{3CF9F470-D500-45A5-9BBD-06189A092AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C3A868-A889-4017-B53B-B80D355E5710}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
   <si>
     <t>SrNo</t>
   </si>
@@ -40,18 +40,6 @@
     <t>python</t>
   </si>
   <si>
-    <t>What is the output when you add "1" and 2 in python?</t>
-  </si>
-  <si>
-    <t>Write a code in python to cast a string to a float values and also take care of any exceptions?</t>
-  </si>
-  <si>
-    <t>Write a python code to check if string start with "W" and end with "?". Also take care of spaces start and end of the sentence.</t>
-  </si>
-  <si>
-    <t>Write a python code to generate fibonacci series with n number of elements</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
@@ -67,15 +55,6 @@
     <t>You.com</t>
   </si>
   <si>
-    <t>Write a python code to check how many times "Abhijit" and it's reverse occurs in the input string. Make it case insensitive.</t>
-  </si>
-  <si>
-    <t>Write a python code to find the prime factors of a number.</t>
-  </si>
-  <si>
-    <t>Write a python code to add the elements of two list alternatively into a new list. Now find the element in the new list which occurs the most.</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -85,54 +64,18 @@
     <t>when I enter 0 it runs infinetly for bings code</t>
   </si>
   <si>
-    <t>Write a python code to format a string in the dd-mm-yyyy date fromat. Don't assume any specific input string, it can be of any input format.</t>
-  </si>
-  <si>
     <t>When I tried entering the date in the standard(yyyymmdd) format most of the code didn't work.</t>
   </si>
   <si>
-    <t>Write a python code to check if the element of the list is present in the dictionary keys, if yes then append all those values in a single string.</t>
-  </si>
-  <si>
     <t>you.com assumes that the value of dict is list of string.</t>
   </si>
   <si>
-    <t>Create a table named customer in Postgres SQL with customer_id starting with 1 and auto increment by 1, cust_name as column with no empty values allowed, address column also no empty values and phone_number with unique and non empty values. Make customer id as  primary key. add a check constraint on phone_number, it should start with 91 and should be of 12 digit.</t>
-  </si>
-  <si>
-    <t>Display names of first 23 distinct employee_name from the table employee in Postgres SQL.</t>
-  </si>
-  <si>
-    <t>Find the average,minimum, maximum and median salary from the employee table in Postgres SQL.</t>
-  </si>
-  <si>
-    <t>What will be the output of '1'+2 in Postgres SQL.</t>
-  </si>
-  <si>
-    <t>Give me all the product_name whose category is cosmetic, drink and clothes (use the in operator) and the product_date should be within 6 months from now.(table name is product and Postgres SQL is DB)</t>
-  </si>
-  <si>
-    <t>Get me all the customer_names who has ordered products from us with product_price greater than 1000.(customer and orders table is given and Postgres SQL is the DB). Give me two different methods to implement this.</t>
-  </si>
-  <si>
-    <t>Get me all the customer information along with their order details even if the customer hasn't ordered anything. There are two different joins with which we can implement this. Show me both of them.(customer and orders table is given and Postgres SQL is the DB)</t>
-  </si>
-  <si>
-    <t>Write a Postgres SQL code to display all unique employee_id who has salary greater that 70k using the employee table.</t>
-  </si>
-  <si>
     <t>Bard here made contradicting constraints, phone number with 10 length and then in the check constraint of length 12.</t>
   </si>
   <si>
-    <t>Give me names of the employee whose emp_id's second and third letter is 'PE' and char 'X' in any place of the emp_id from the table employee in Postgres SQL .</t>
-  </si>
-  <si>
     <t>Bard is not able to formulate the like keywords.</t>
   </si>
   <si>
-    <t>Does unique constraint allows null values in Postgres SQL and if yes then how many ?</t>
-  </si>
-  <si>
     <t>you.com is giving wrong info here, actually the opposite answers.</t>
   </si>
   <si>
@@ -143,19 +86,6 @@
   </si>
   <si>
     <t>Migration</t>
-  </si>
-  <si>
-    <t>Write a python code where you input string of sentences and output is a list of unique words from the sentence, be carefull about the case.</t>
-  </si>
-  <si>
-    <t>Write the below python code in Go lang:  
-def func(number):
-  f = []
-  for i in range(2, number + 1):
-    while number % i == 0:
-      f.append(i)
-      number = number // i
-  return f</t>
   </si>
   <si>
     <t>Wrtie the below python code in R language:  
@@ -206,31 +136,113 @@
     <t>java</t>
   </si>
   <si>
-    <t>What is the output when you add "1" and 2 in java?</t>
-  </si>
-  <si>
-    <t>Write a java code to add the elements of two list alternatively into a new list. Now find the element in the new list which occurs the most.</t>
-  </si>
-  <si>
     <t>Bard and Bing failed, giving compilation error as output</t>
   </si>
   <si>
     <t>When the list are uneaqual it fails</t>
   </si>
   <si>
-    <t>Write a java code to find the prime factors of a number.</t>
-  </si>
-  <si>
     <t>GPT3.5 n you Failing when number is 0</t>
   </si>
   <si>
-    <t>Write a java code to check how many times "Abhijit" and it's reverse occurs in the input string. Make it case insensitive.</t>
-  </si>
-  <si>
     <t>Write a java code to format a string in the dd-mm-yyyy date fromat. Don't assume any specific input string, it can be of any input format.</t>
   </si>
   <si>
-    <t>References</t>
+    <t xml:space="preserve">Write the below python code in Go lang:  
+def func(number):
+  f = []
+  for i in range(2, number + 1):
+    while number % i == 0:
+      f.append(i)
+      number = number // i
+  return f </t>
+  </si>
+  <si>
+    <t>Question Reference</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>(11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the output when you add "1" and 2 in python? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a code in python to cast a string to a float values and also take care of any exceptions? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code where you input string of sentences and output is a list of unique words from the sentence, be carefull about the case. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to check if string start with "W" and end with "?". Also take care of spaces start and end of the sentence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to check how many times "Abhijit" and it's reverse occurs in the input string. Make it case insensitive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to add the elements of two list alternatively into a new list. Now find the element in the new list which occurs the most. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to generate fibonacci series with n number of elements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to find the prime factors of a number. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to format a string in the dd-mm-yyyy date fromat. Don't assume any specific input string, it can be of any input format. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to check if the element of the list is present in the dictionary keys, if yes then append all those values in a single string. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Postgres SQL code to display all unique employee_id who has salary greater that 70k using the employee table. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a table named customer in Postgres SQL with customer_id starting with 1 and auto increment by 1, cust_name as column with no empty values allowed, address column also no empty values and phone_number with unique and non empty values. Make customer id as  primary key. add a check constraint on phone_number, it should start with 91 and should be of 12 digit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me names of the employee whose emp_id's second and third letter is 'PE' and char 'X' in any place of the emp_id from the table employee in Postgres SQL . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display names of first 23 distinct employee_name from the table employee in Postgres SQL. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the average,minimum, maximum and median salary from the employee table in Postgres SQL. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What will be the output of '1'+2 in Postgres SQL. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me all the product_name whose category is cosmetic, drink and clothes (use the in operator) and the product_date should be within 6 months from now.(table name is product and Postgres SQL is DB). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does unique constraint allows null values in Postgres SQL and if yes then how many ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get me all the customer_names who has ordered products from us with product_price greater than 1000.(customer and orders table is given and Postgres SQL is the DB). Give me two different methods to implement this. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get me all the customer information along with their order details even if the customer hasn't ordered anything. There are two different joins with which we can implement this. Show me both of them.(customer and orders table is given and Postgres SQL is the DB). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the output when you add "1" and 2 in java? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a java code to add the elements of two list alternatively into a new list. Now find the element in the new list which occurs the most. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a java code to find the prime factors of a number. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a java code to check how many times "Abhijit" and it's reverse occurs in the input string. Make it case insensitive. </t>
   </si>
 </sst>
 </file>
@@ -293,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -306,6 +318,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -326,6 +344,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -617,7 +639,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,10 +647,10 @@
     <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="68" style="3" customWidth="1"/>
     <col min="9" max="9" width="43.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -642,22 +664,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>58</v>
+      <c r="J1" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -671,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -684,6 +706,9 @@
       </c>
       <c r="H2">
         <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -697,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -710,6 +735,9 @@
       </c>
       <c r="H3">
         <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -737,6 +765,9 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="J4" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -749,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -762,6 +793,9 @@
       </c>
       <c r="H5">
         <v>1</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -775,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,6 +822,9 @@
       </c>
       <c r="H6">
         <v>1</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -801,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -816,7 +853,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -830,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -843,6 +883,9 @@
       </c>
       <c r="H8">
         <v>1</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -856,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -871,7 +914,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -885,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -900,7 +946,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -914,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -929,7 +978,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -940,10 +992,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -956,6 +1008,9 @@
       </c>
       <c r="H12">
         <v>1</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -966,10 +1021,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -984,7 +1039,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -995,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1013,7 +1071,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1024,10 +1085,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1040,6 +1101,9 @@
       </c>
       <c r="H15">
         <v>1</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1050,10 +1114,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1067,8 +1131,11 @@
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1076,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1093,8 +1160,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1102,10 +1172,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1120,10 +1190,13 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1131,28 +1204,31 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1160,10 +1236,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1177,8 +1253,11 @@
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J20" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1186,10 +1265,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1204,18 +1283,21 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1229,16 +1311,19 @@
       <c r="H22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="J22" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1253,18 +1338,21 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1278,16 +1366,19 @@
       <c r="H24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J24" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1301,16 +1392,19 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="J25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1325,18 +1419,21 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1351,18 +1448,21 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1377,18 +1477,21 @@
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1403,18 +1506,21 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1428,16 +1534,19 @@
       <c r="H30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J30" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1451,8 +1560,11 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E32" s="4">
         <f>SUM(E2:E31)</f>
         <v>23</v>
